--- a/output/QUALITY/rebalance/rebalance_20240329.xlsx
+++ b/output/QUALITY/rebalance/rebalance_20240329.xlsx
@@ -6210,13 +6210,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02451559504315199</v>
+        <v>0.02451451778952056</v>
       </c>
       <c r="C2" t="n">
         <v>0.02358587557301815</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0009297194701338406</v>
+        <v>-0.0009286422165024136</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6231,13 +6231,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02066476880764664</v>
+        <v>0.02066554062355065</v>
       </c>
       <c r="C3" t="n">
         <v>0.02326165496257243</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002596886154925794</v>
+        <v>0.002596114339021786</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6252,13 +6252,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0240858482003866</v>
+        <v>0.02408703395430985</v>
       </c>
       <c r="C4" t="n">
         <v>0.02314292416511664</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.0009429240352699618</v>
+        <v>-0.0009441097891932163</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6273,13 +6273,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02328381791384872</v>
+        <v>0.02328294148114384</v>
       </c>
       <c r="C5" t="n">
         <v>0.02308774074204478</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.000196077171803942</v>
+        <v>-0.0001952007390990627</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6294,13 +6294,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02815140518265659</v>
+        <v>0.02815041725647661</v>
       </c>
       <c r="C6" t="n">
         <v>0.02291548760835563</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.005235917574300954</v>
+        <v>-0.005234929648120973</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6315,13 +6315,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01764356463503832</v>
+        <v>0.01764358653424401</v>
       </c>
       <c r="C7" t="n">
         <v>0.02230082250467971</v>
       </c>
       <c r="D7" t="n">
-        <v>0.004657257869641392</v>
+        <v>0.004657235970435696</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6336,13 +6336,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0298862742153272</v>
+        <v>0.02988551346108943</v>
       </c>
       <c r="C8" t="n">
         <v>0.02226813734448871</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.007618136870838496</v>
+        <v>-0.007617376116600721</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6357,13 +6357,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01588392725846521</v>
+        <v>0.01588402046741045</v>
       </c>
       <c r="C9" t="n">
         <v>0.02188774798558949</v>
       </c>
       <c r="D9" t="n">
-        <v>0.006003820727124277</v>
+        <v>0.006003727518179038</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6378,13 +6378,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01745110139880475</v>
+        <v>0.01745134690646339</v>
       </c>
       <c r="C10" t="n">
         <v>0.02184206903795094</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004390967639146197</v>
+        <v>0.004390722131487553</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6399,13 +6399,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02704507907897822</v>
+        <v>0.02704433513964501</v>
       </c>
       <c r="C11" t="n">
         <v>0.0217186359759658</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.005326443103012422</v>
+        <v>-0.005325699163679216</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6420,13 +6420,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02234554187527834</v>
+        <v>0.02234524442384385</v>
       </c>
       <c r="C12" t="n">
         <v>0.02158318821361524</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0007623536616630962</v>
+        <v>-0.0007620562102286094</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6441,13 +6441,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01959865624323601</v>
+        <v>0.01959845366602722</v>
       </c>
       <c r="C13" t="n">
         <v>0.0214498855660257</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001851229322789683</v>
+        <v>0.001851431899998476</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6462,13 +6462,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01878339458788734</v>
+        <v>0.01878337116047196</v>
       </c>
       <c r="C14" t="n">
         <v>0.0213629747207009</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002579580132813553</v>
+        <v>0.002579603560228936</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6483,13 +6483,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02053940967162482</v>
+        <v>0.02054021729659196</v>
       </c>
       <c r="C15" t="n">
         <v>0.02132336023641328</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0007839505647884645</v>
+        <v>0.0007831429398213186</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6504,13 +6504,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02599774340184646</v>
+        <v>0.02599744585190777</v>
       </c>
       <c r="C16" t="n">
         <v>0.02126271884628542</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.004735024555561039</v>
+        <v>-0.004734727005622354</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6525,13 +6525,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02563666668607704</v>
+        <v>0.02563719344003066</v>
       </c>
       <c r="C17" t="n">
         <v>0.02125113237646124</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.004385534309615802</v>
+        <v>-0.004386061063569421</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6546,13 +6546,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02198482256252466</v>
+        <v>0.02198460328580943</v>
       </c>
       <c r="C18" t="n">
         <v>0.02117324065350953</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0008115819090151292</v>
+        <v>-0.0008113626322999029</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6567,13 +6567,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02095936535202173</v>
+        <v>0.02095932553992175</v>
       </c>
       <c r="C19" t="n">
         <v>0.02104434929852725</v>
       </c>
       <c r="D19" t="n">
-        <v>8.498394650552007e-05</v>
+        <v>8.502375860550138e-05</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6588,13 +6588,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01840828482153452</v>
+        <v>0.01840828724782183</v>
       </c>
       <c r="C20" t="n">
         <v>0.02069944711954099</v>
       </c>
       <c r="D20" t="n">
-        <v>0.002291162298006476</v>
+        <v>0.002291159871719167</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6609,13 +6609,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02085554716662981</v>
+        <v>0.02085585146351456</v>
       </c>
       <c r="C21" t="n">
         <v>0.02051674972328751</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.0003387974433422952</v>
+        <v>-0.0003391017402270477</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6630,13 +6630,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01527175021373316</v>
+        <v>0.01527207504565214</v>
       </c>
       <c r="C22" t="n">
         <v>0.02049558882091108</v>
       </c>
       <c r="D22" t="n">
-        <v>0.005223838607177921</v>
+        <v>0.005223513775258946</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6651,13 +6651,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02274897023508401</v>
+        <v>0.02274857798363433</v>
       </c>
       <c r="C23" t="n">
         <v>0.02014705677447708</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.002601913460606932</v>
+        <v>-0.002601521209157253</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6672,13 +6672,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02080487897975152</v>
+        <v>0.02080603707109715</v>
       </c>
       <c r="C24" t="n">
         <v>0.01984930335595708</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.0009555756237944399</v>
+        <v>-0.00095673371514007</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6693,13 +6693,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01888472749339871</v>
+        <v>0.01888588568882961</v>
       </c>
       <c r="C25" t="n">
         <v>0.01980705392349352</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0009223264300948011</v>
+        <v>0.0009211682346639063</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6714,13 +6714,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02313576610332801</v>
+        <v>0.02313561070278492</v>
       </c>
       <c r="C26" t="n">
         <v>0.01969782617748231</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.003437939925845696</v>
+        <v>-0.00343778452530261</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6735,13 +6735,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01551642057194505</v>
+        <v>0.01551659781160032</v>
       </c>
       <c r="C27" t="n">
         <v>0.01959914696046587</v>
       </c>
       <c r="D27" t="n">
-        <v>0.004082726388520827</v>
+        <v>0.004082549148865555</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6756,13 +6756,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0212836245859373</v>
+        <v>0.02128321346860119</v>
       </c>
       <c r="C28" t="n">
         <v>0.01958853138110588</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.001695093204831424</v>
+        <v>-0.001694682087495313</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6777,13 +6777,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01752748971409037</v>
+        <v>0.01752792929204267</v>
       </c>
       <c r="C29" t="n">
         <v>0.01954495560067347</v>
       </c>
       <c r="D29" t="n">
-        <v>0.002017465886583091</v>
+        <v>0.002017026308630793</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6798,13 +6798,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01937072135427511</v>
+        <v>0.01937049782473423</v>
       </c>
       <c r="C30" t="n">
         <v>0.01940826898150284</v>
       </c>
       <c r="D30" t="n">
-        <v>3.754762722773738e-05</v>
+        <v>3.777115676861439e-05</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6819,13 +6819,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01764662760790592</v>
+        <v>0.01764664054901501</v>
       </c>
       <c r="C31" t="n">
         <v>0.0192488248987746</v>
       </c>
       <c r="D31" t="n">
-        <v>0.001602197290868676</v>
+        <v>0.001602184349759589</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -6840,13 +6840,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.0199765736940638</v>
+        <v>0.01997649108905633</v>
       </c>
       <c r="C32" t="n">
         <v>0.01918996208123299</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.0007866116128308134</v>
+        <v>-0.0007865290078233368</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6861,13 +6861,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02017605501599503</v>
+        <v>0.0201757273984602</v>
       </c>
       <c r="C33" t="n">
         <v>0.01918861587222836</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.0009874391437666719</v>
+        <v>-0.0009871115262318347</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6882,13 +6882,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01816564301045473</v>
+        <v>0.01816558112203961</v>
       </c>
       <c r="C34" t="n">
         <v>0.01906809177338751</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0009024487629327796</v>
+        <v>0.000902510651347891</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -6903,13 +6903,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01686719214974733</v>
+        <v>0.01686734607194856</v>
       </c>
       <c r="C35" t="n">
         <v>0.01896840933628701</v>
       </c>
       <c r="D35" t="n">
-        <v>0.002101217186539679</v>
+        <v>0.002101063264338447</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6924,13 +6924,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01997361900198665</v>
+        <v>0.01997365570554529</v>
       </c>
       <c r="C36" t="n">
         <v>0.01888743729866393</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.001086181703322722</v>
+        <v>-0.001086218406881358</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -6945,13 +6945,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01719950549958746</v>
+        <v>0.01719957215033803</v>
       </c>
       <c r="C37" t="n">
         <v>0.01882596827187051</v>
       </c>
       <c r="D37" t="n">
-        <v>0.001626462772283052</v>
+        <v>0.001626396121532477</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -6966,13 +6966,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.02699397357259041</v>
+        <v>0.02699397767078727</v>
       </c>
       <c r="C38" t="n">
         <v>0.01871333350596565</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.008280640066624757</v>
+        <v>-0.008280644164821622</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -6987,13 +6987,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01929841541226688</v>
+        <v>0.01929907830019173</v>
       </c>
       <c r="C39" t="n">
         <v>0.01834424222310944</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.0009541731891574354</v>
+        <v>-0.000954836077082289</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -7008,13 +7008,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01692645168346682</v>
+        <v>0.01692662654410134</v>
       </c>
       <c r="C40" t="n">
         <v>0.01833311924157323</v>
       </c>
       <c r="D40" t="n">
-        <v>0.001406667558106412</v>
+        <v>0.001406492697471888</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7029,13 +7029,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01753962265391111</v>
+        <v>0.0175389189283279</v>
       </c>
       <c r="C41" t="n">
         <v>0.01828086963332106</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0007412469794099534</v>
+        <v>0.0007419507049931558</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -7050,13 +7050,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01691472664167798</v>
+        <v>0.0169140793533959</v>
       </c>
       <c r="C42" t="n">
         <v>0.01827465794075837</v>
       </c>
       <c r="D42" t="n">
-        <v>0.001359931299080391</v>
+        <v>0.001360578587362472</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01946257930445155</v>
+        <v>0.01946265570503874</v>
       </c>
       <c r="C43" t="n">
         <v>0.0181120756594199</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.001350503645031653</v>
+        <v>-0.001350580045618839</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -7092,13 +7092,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.01621767080180993</v>
+        <v>0.01621770999855322</v>
       </c>
       <c r="C44" t="n">
         <v>0.01780015243113603</v>
       </c>
       <c r="D44" t="n">
-        <v>0.001582481629326095</v>
+        <v>0.001582442432582813</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -7113,13 +7113,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.01761076302884498</v>
+        <v>0.01761086131581679</v>
       </c>
       <c r="C45" t="n">
         <v>0.01776105584326038</v>
       </c>
       <c r="D45" t="n">
-        <v>0.000150292814415403</v>
+        <v>0.0001501945274435951</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -7134,13 +7134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.01606141899473888</v>
+        <v>0.01606109631315939</v>
       </c>
       <c r="C46" t="n">
         <v>0.01770369838483129</v>
       </c>
       <c r="D46" t="n">
-        <v>0.001642279390092406</v>
+        <v>0.001642602071671894</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -7155,13 +7155,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01808212237753034</v>
+        <v>0.01808191088365126</v>
       </c>
       <c r="C47" t="n">
         <v>0.01758451329490204</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.0004976090826282961</v>
+        <v>-0.0004973975887492162</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -7176,13 +7176,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.01626300838665861</v>
+        <v>0.01626287682001351</v>
       </c>
       <c r="C48" t="n">
         <v>0.01752688398821163</v>
       </c>
       <c r="D48" t="n">
-        <v>0.00126387560155302</v>
+        <v>0.00126400716819812</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -7260,13 +7260,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01756324816676407</v>
+        <v>0.01756346865608574</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01756324816676407</v>
+        <v>-0.01756346865608574</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7281,13 +7281,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01823623643516745</v>
+        <v>0.01823625278131023</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01823623643516745</v>
+        <v>-0.01823625278131023</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7302,13 +7302,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01455938320587184</v>
+        <v>0.01455980076439256</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01455938320587184</v>
+        <v>-0.01455980076439256</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>

--- a/output/QUALITY/rebalance/rebalance_20240329.xlsx
+++ b/output/QUALITY/rebalance/rebalance_20240329.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>10.43%</t>
+          <t>10.41%</t>
         </is>
       </c>
     </row>
@@ -6210,13 +6210,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02451451778952056</v>
+        <v>0.0245653299944091</v>
       </c>
       <c r="C2" t="n">
         <v>0.02358587557301815</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0009286422165024136</v>
+        <v>-0.0009794544213909476</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6231,13 +6231,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02066554062355065</v>
+        <v>0.02070669156202316</v>
       </c>
       <c r="C3" t="n">
         <v>0.02326165496257243</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002596114339021786</v>
+        <v>0.002554963400549275</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6252,13 +6252,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02408703395430985</v>
+        <v>0.02413471132135606</v>
       </c>
       <c r="C4" t="n">
         <v>0.02314292416511664</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.0009441097891932163</v>
+        <v>-0.0009917871562394251</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6273,13 +6273,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02328294148114384</v>
+        <v>0.02333105395062397</v>
       </c>
       <c r="C5" t="n">
         <v>0.02308774074204478</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0001952007390990627</v>
+        <v>-0.0002433132085791836</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6294,13 +6294,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02815041725647661</v>
+        <v>0.02820851612620554</v>
       </c>
       <c r="C6" t="n">
         <v>0.02291548760835563</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.005234929648120973</v>
+        <v>-0.005293028517849907</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6315,13 +6315,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01764358653424401</v>
+        <v>0.01767935825234929</v>
       </c>
       <c r="C7" t="n">
         <v>0.02230082250467971</v>
       </c>
       <c r="D7" t="n">
-        <v>0.004657235970435696</v>
+        <v>0.004621464252330419</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6336,13 +6336,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02988551346108943</v>
+        <v>0.02994690469925953</v>
       </c>
       <c r="C8" t="n">
         <v>0.02226813734448871</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.007617376116600721</v>
+        <v>-0.007678767354770827</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6357,13 +6357,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01588402046741045</v>
+        <v>0.01591615108768822</v>
       </c>
       <c r="C9" t="n">
         <v>0.02188774798558949</v>
       </c>
       <c r="D9" t="n">
-        <v>0.006003727518179038</v>
+        <v>0.00597159689790127</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6378,13 +6378,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01745134690646339</v>
+        <v>0.01719799483140401</v>
       </c>
       <c r="C10" t="n">
         <v>0.02184206903795094</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004390722131487553</v>
+        <v>0.004644074206546937</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6399,13 +6399,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02704433513964501</v>
+        <v>0.0270999456113781</v>
       </c>
       <c r="C11" t="n">
         <v>0.0217186359759658</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.005325699163679216</v>
+        <v>-0.0053813096354123</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6420,13 +6420,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02234524442384385</v>
+        <v>0.02239087442519297</v>
       </c>
       <c r="C12" t="n">
         <v>0.02158318821361524</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0007620562102286094</v>
+        <v>-0.0008076862115777225</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6441,13 +6441,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01959845366602722</v>
+        <v>0.0196384161679389</v>
       </c>
       <c r="C13" t="n">
         <v>0.0214498855660257</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001851431899998476</v>
+        <v>0.001811469398086799</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6462,13 +6462,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01878337116047196</v>
+        <v>0.01882150058582975</v>
       </c>
       <c r="C14" t="n">
         <v>0.0213629747207009</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002579603560228936</v>
+        <v>0.002541474134871147</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6483,13 +6483,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02054021729659196</v>
+        <v>0.02058107810908555</v>
       </c>
       <c r="C15" t="n">
         <v>0.02132336023641328</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0007831429398213186</v>
+        <v>0.0007422821273277355</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6504,13 +6504,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02599744585190777</v>
+        <v>0.02605048519736924</v>
       </c>
       <c r="C16" t="n">
         <v>0.02126271884628542</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.004734727005622354</v>
+        <v>-0.004787766351083821</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6525,13 +6525,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02563719344003066</v>
+        <v>0.0249759265719801</v>
       </c>
       <c r="C17" t="n">
         <v>0.02125113237646124</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.004386061063569421</v>
+        <v>-0.003724794195518868</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6546,13 +6546,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02198460328580943</v>
+        <v>0.02202942331876246</v>
       </c>
       <c r="C18" t="n">
         <v>0.02117324065350953</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0008113626322999029</v>
+        <v>-0.0008561826652529331</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6567,13 +6567,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02095932553992175</v>
+        <v>0.02100188575637365</v>
       </c>
       <c r="C19" t="n">
         <v>0.02104434929852725</v>
       </c>
       <c r="D19" t="n">
-        <v>8.502375860550138e-05</v>
+        <v>4.246354215359585e-05</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6588,13 +6588,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01840828724782183</v>
+        <v>0.0184456298317908</v>
       </c>
       <c r="C20" t="n">
         <v>0.02069944711954099</v>
       </c>
       <c r="D20" t="n">
-        <v>0.002291159871719167</v>
+        <v>0.002253817287750197</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6609,13 +6609,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02085585146351456</v>
+        <v>0.02089785695433624</v>
       </c>
       <c r="C21" t="n">
         <v>0.02051674972328751</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.0003391017402270477</v>
+        <v>-0.0003811072310487343</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6630,13 +6630,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01527207504565214</v>
+        <v>0.01523247156474296</v>
       </c>
       <c r="C22" t="n">
         <v>0.02049558882091108</v>
       </c>
       <c r="D22" t="n">
-        <v>0.005223513775258946</v>
+        <v>0.005263117256168128</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6651,13 +6651,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02274857798363433</v>
+        <v>0.02279512122280429</v>
       </c>
       <c r="C23" t="n">
         <v>0.02014705677447708</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.002601521209157253</v>
+        <v>-0.002648064448327214</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6672,13 +6672,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02080603707109715</v>
+        <v>0.02084708597656911</v>
       </c>
       <c r="C24" t="n">
         <v>0.01984930335595708</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.00095673371514007</v>
+        <v>-0.0009977826206120297</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6693,13 +6693,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01888588568882961</v>
+        <v>0.01892303906608276</v>
       </c>
       <c r="C25" t="n">
         <v>0.01980705392349352</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0009211682346639063</v>
+        <v>0.0008840148574107559</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6714,13 +6714,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02313561070278492</v>
+        <v>0.02307650469125224</v>
       </c>
       <c r="C26" t="n">
         <v>0.01969782617748231</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.00343778452530261</v>
+        <v>-0.003378678513769932</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6735,13 +6735,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01551659781160032</v>
+        <v>0.01554789883790075</v>
       </c>
       <c r="C27" t="n">
         <v>0.01959914696046587</v>
       </c>
       <c r="D27" t="n">
-        <v>0.004082549148865555</v>
+        <v>0.004051248122565125</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6756,13 +6756,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.02128321346860119</v>
+        <v>0.02132680281716084</v>
       </c>
       <c r="C28" t="n">
         <v>0.01958853138110588</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.001694682087495313</v>
+        <v>-0.001738271436054966</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6777,13 +6777,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01752792929204267</v>
+        <v>0.01722903074147559</v>
       </c>
       <c r="C29" t="n">
         <v>0.01954495560067347</v>
       </c>
       <c r="D29" t="n">
-        <v>0.002017026308630793</v>
+        <v>0.002315924859197876</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6798,17 +6798,17 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01937049782473423</v>
+        <v>0.01941001886594776</v>
       </c>
       <c r="C30" t="n">
         <v>0.01940826898150284</v>
       </c>
       <c r="D30" t="n">
-        <v>3.777115676861439e-05</v>
+        <v>-1.749884444918887e-06</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6819,13 +6819,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01764664054901501</v>
+        <v>0.0176824274390904</v>
       </c>
       <c r="C31" t="n">
         <v>0.0192488248987746</v>
       </c>
       <c r="D31" t="n">
-        <v>0.001602184349759589</v>
+        <v>0.001566397459684198</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -6840,13 +6840,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01997649108905633</v>
+        <v>0.02001710030242105</v>
       </c>
       <c r="C32" t="n">
         <v>0.01918996208123299</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.0007865290078233368</v>
+        <v>-0.000827138221188059</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6861,13 +6861,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.0201757273984602</v>
+        <v>0.02021698631344121</v>
       </c>
       <c r="C33" t="n">
         <v>0.01918861587222836</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.0009871115262318347</v>
+        <v>-0.001028370441212848</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6882,13 +6882,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01816558112203961</v>
+        <v>0.01820249577164974</v>
       </c>
       <c r="C34" t="n">
         <v>0.01906809177338751</v>
       </c>
       <c r="D34" t="n">
-        <v>0.000902510651347891</v>
+        <v>0.0008655960017377694</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -6903,13 +6903,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01686734607194856</v>
+        <v>0.01690141073501663</v>
       </c>
       <c r="C35" t="n">
         <v>0.01896840933628701</v>
       </c>
       <c r="D35" t="n">
-        <v>0.002101063264338447</v>
+        <v>0.002066998601270378</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6924,13 +6924,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01997365570554529</v>
+        <v>0.02001413961614035</v>
       </c>
       <c r="C36" t="n">
         <v>0.01888743729866393</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.001086218406881358</v>
+        <v>-0.001126702317476427</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -6945,13 +6945,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01719957215033803</v>
+        <v>0.01723439825116712</v>
       </c>
       <c r="C37" t="n">
         <v>0.01882596827187051</v>
       </c>
       <c r="D37" t="n">
-        <v>0.001626396121532477</v>
+        <v>0.001591570020703394</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -6966,13 +6966,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.02699397767078727</v>
+        <v>0.02704873642690843</v>
       </c>
       <c r="C38" t="n">
         <v>0.01871333350596565</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.008280644164821622</v>
+        <v>-0.008335402920942783</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -6987,13 +6987,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01929907830019173</v>
+        <v>0.01933756623639247</v>
       </c>
       <c r="C39" t="n">
         <v>0.01834424222310944</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.000954836077082289</v>
+        <v>-0.0009933240132830208</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -7008,13 +7008,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01692662654410134</v>
+        <v>0.01696079048894762</v>
       </c>
       <c r="C40" t="n">
         <v>0.01833311924157323</v>
       </c>
       <c r="D40" t="n">
-        <v>0.001406492697471888</v>
+        <v>0.001372328752625607</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7029,13 +7029,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.0175389189283279</v>
+        <v>0.01757520540343134</v>
       </c>
       <c r="C41" t="n">
         <v>0.01828086963332106</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0007419507049931558</v>
+        <v>0.0007056642298897235</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -7050,13 +7050,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.0169140793533959</v>
+        <v>0.01694904166048827</v>
       </c>
       <c r="C42" t="n">
         <v>0.01827465794075837</v>
       </c>
       <c r="D42" t="n">
-        <v>0.001360578587362472</v>
+        <v>0.0013256162802701</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01946265570503874</v>
+        <v>0.018985090373749</v>
       </c>
       <c r="C43" t="n">
         <v>0.0181120756594199</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.001350580045618839</v>
+        <v>-0.0008730147143290942</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -7092,13 +7092,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.01621770999855322</v>
+        <v>0.01625057169878641</v>
       </c>
       <c r="C44" t="n">
         <v>0.01780015243113603</v>
       </c>
       <c r="D44" t="n">
-        <v>0.001582442432582813</v>
+        <v>0.001549580732349617</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -7113,13 +7113,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.01761086131581679</v>
+        <v>0.01764649010131857</v>
       </c>
       <c r="C45" t="n">
         <v>0.01776105584326038</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0001501945274435951</v>
+        <v>0.0001145657419418106</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -7134,13 +7134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.01606109631315939</v>
+        <v>0.01609400290263166</v>
       </c>
       <c r="C46" t="n">
         <v>0.01770369838483129</v>
       </c>
       <c r="D46" t="n">
-        <v>0.001642602071671894</v>
+        <v>0.001609695482199629</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -7155,13 +7155,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01808191088365126</v>
+        <v>0.01811880569986</v>
       </c>
       <c r="C47" t="n">
         <v>0.01758451329490204</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.0004973975887492162</v>
+        <v>-0.0005342924049579548</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -7176,13 +7176,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.01626287682001351</v>
+        <v>0.016296001260296</v>
       </c>
       <c r="C48" t="n">
         <v>0.01752688398821163</v>
       </c>
       <c r="D48" t="n">
-        <v>0.00126400716819812</v>
+        <v>0.00123088272791563</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -7260,13 +7260,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01756346865608574</v>
+        <v>0.01759887884551988</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01756346865608574</v>
+        <v>-0.01759887884551988</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7281,13 +7281,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01823625278131023</v>
+        <v>0.01827323240971425</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01823625278131023</v>
+        <v>-0.01827323240971425</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7302,13 +7302,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01455980076439256</v>
+        <v>0.01458891992373666</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01455980076439256</v>
+        <v>-0.01458891992373666</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
